--- a/individual_case_outputs/avey/8.xlsx
+++ b/individual_case_outputs/avey/8.xlsx
@@ -797,7 +797,7 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>rheumatic fever</t>
+          <t>uncomplicated fever</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
